--- a/vanke-2020.xlsx
+++ b/vanke-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwei\Documents\Me\doc-git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C50545-B20B-484F-8806-74E7B17D4928}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3196394A-E866-4846-9A87-F1318D12A1B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>七斗两门</t>
   </si>
@@ -104,9 +104,6 @@
     <t>客厅</t>
   </si>
   <si>
-    <t>实木现代工作台</t>
-  </si>
-  <si>
     <t>200x70x75, 5cm</t>
   </si>
   <si>
@@ -128,12 +125,6 @@
     <t>原木色</t>
   </si>
   <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>收藏单价</t>
-  </si>
-  <si>
     <t>一桌四椅</t>
   </si>
   <si>
@@ -234,6 +225,18 @@
   </si>
   <si>
     <t>Galanz/格兰仕 G70F20CN1L-DG</t>
+  </si>
+  <si>
+    <t>两把 (66x2)</t>
+  </si>
+  <si>
+    <t>京东(JD)</t>
+  </si>
+  <si>
+    <t>电脑桌</t>
+  </si>
+  <si>
+    <t>阳台西侧</t>
   </si>
 </sst>
 </file>
@@ -581,23 +584,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -608,36 +610,30 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -645,22 +641,18 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>1151</v>
       </c>
       <c r="E3">
-        <v>1151</v>
-      </c>
-      <c r="F3">
-        <f>E3*D3</f>
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1151.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -668,87 +660,62 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="E5">
-        <v>2000</v>
-      </c>
-      <c r="F5">
-        <f>E5*D5</f>
-        <v>2000</v>
-      </c>
-      <c r="H5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="E7">
         <v>1200</v>
       </c>
-      <c r="F7">
-        <f>E7*D7</f>
-        <v>1200</v>
-      </c>
-      <c r="G7">
-        <v>1200</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="E8">
         <v>600</v>
       </c>
-      <c r="F8">
-        <f>E8*D8</f>
-        <v>600</v>
-      </c>
-      <c r="G8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="E9">
         <v>300</v>
       </c>
-      <c r="F9">
-        <f>E9*D9</f>
-        <v>300</v>
-      </c>
-      <c r="G9">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -756,306 +723,247 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>618</v>
       </c>
       <c r="E11">
-        <v>618</v>
-      </c>
-      <c r="F11">
-        <f>E11*D11</f>
-        <v>618</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="E12">
-        <v>266</v>
-      </c>
-      <c r="F12">
-        <f>E12*D12</f>
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>1049</v>
       </c>
       <c r="E13">
-        <v>1049</v>
-      </c>
-      <c r="F13">
-        <f>E13*D13</f>
-        <v>1049</v>
-      </c>
-      <c r="G13">
         <v>1410</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>686</v>
       </c>
       <c r="E14">
-        <v>686</v>
-      </c>
-      <c r="F14">
-        <f>E14*D14</f>
-        <v>686</v>
-      </c>
-      <c r="G14">
         <v>639</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>4499</v>
       </c>
       <c r="E16">
-        <v>4499</v>
-      </c>
-      <c r="F16">
-        <f>E16*D16</f>
-        <v>4499</v>
-      </c>
-      <c r="H16" t="s">
+        <v>3534.05</v>
+      </c>
+      <c r="F16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18">
+        <v>480</v>
+      </c>
+      <c r="E18">
+        <v>480</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1480</v>
-      </c>
-      <c r="F18">
-        <f>E18*D18</f>
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19">
+        <v>6604</v>
+      </c>
+      <c r="E19">
+        <v>5446.8</v>
+      </c>
+      <c r="F19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>6604</v>
-      </c>
-      <c r="F19">
-        <f>E19*D19</f>
-        <v>6604</v>
-      </c>
-      <c r="H19" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20">
+        <v>99</v>
+      </c>
+      <c r="E20">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>99</v>
-      </c>
-      <c r="F20">
-        <f>E20*D20</f>
-        <v>99</v>
-      </c>
-      <c r="G20">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
       <c r="D21">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E21">
         <v>132</v>
       </c>
-      <c r="F21">
-        <f>E21*D21</f>
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>2508</v>
+      </c>
+      <c r="E22">
+        <v>2474.65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>2099</v>
+      </c>
+      <c r="E24">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>2508</v>
-      </c>
-      <c r="F22">
-        <f>E22*D22</f>
-        <v>2508</v>
-      </c>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="C25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>2099</v>
-      </c>
-      <c r="F24">
-        <f>E24*D24</f>
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
       <c r="D25">
-        <v>1</v>
+        <v>2399</v>
       </c>
       <c r="E25">
-        <v>2399</v>
-      </c>
-      <c r="F25">
-        <f>E25*D25</f>
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26">
+        <v>3799</v>
+      </c>
+      <c r="E26">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
         <v>43</v>
       </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>3799</v>
-      </c>
-      <c r="F26">
-        <f>E26*D26</f>
-        <v>3799</v>
-      </c>
-      <c r="G26">
-        <v>3599</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
       <c r="D27">
-        <v>1</v>
+        <v>2999</v>
       </c>
       <c r="E27">
-        <v>2999</v>
-      </c>
-      <c r="F27">
-        <f>E27*D27</f>
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1699</v>
+      </c>
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>379</v>
       </c>
       <c r="E28">
         <v>379</v>
       </c>
-      <c r="F28">
-        <f>E28*D28</f>
-        <v>379</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="D30" s="4">
+        <f>SUM(D3:D28)</f>
+        <v>33867</v>
+      </c>
+      <c r="E30" s="4">
+        <f>SUM(E2:E28)</f>
+        <v>28996.2</v>
       </c>
       <c r="F30" s="4">
-        <f>SUM(F3:F28)</f>
-        <v>34999</v>
-      </c>
-      <c r="G30" s="4">
-        <f>SUM(G2:G28)</f>
-        <v>7837</v>
+        <f>D30-E30</f>
+        <v>4870.7999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -1066,10 +974,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91F2053-E977-4C39-A64A-12DBE2EF36E5}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,13 +989,13 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -1095,18 +1003,18 @@
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1122,7 +1030,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>140</v>
@@ -1174,7 +1082,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>147</v>
@@ -1196,7 +1104,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <v>196</v>
@@ -1204,33 +1112,50 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19">
+        <v>140</v>
+      </c>
+      <c r="D19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>C13-C17-C18-C19</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>59</v>
       </c>
-      <c r="D18">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21">
+      <c r="C22">
         <v>90</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>74</v>
       </c>
     </row>
